--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -222,7 +222,7 @@
     <t xml:space="preserve">Fox is a neutral role has unique win condition.
 His win condition is to complete tasks and survive until the end.
 He has strong win condition but he can't fix sabotage.
-He can create Immoralist from unkillable players, Immoralist can help fox to pretend  to fix sabotage. 
+He can create Immoralist from unkillable players, Immoralist can help fox to pretend  to fix sabotage. (Option)
 If he fills his win condition, he overwrites other player’s win except neutral role's solo win.
  (Exceptions:  Jester, Arsonist, Vulture,  Plague doctor Puppeteer etc...) 
 In other words，Fox cant win until other player fills win condition  
@@ -15557,8 +15557,8 @@
   </sheetPr>
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22938,7 +22938,7 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23523,8 +23523,8 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.88671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -678,7 +678,7 @@
     <t xml:space="preserve">Fortune teller2 is crewmate role who has ability to divine
 Fortune teller2 is shown as crewmate, until he completes number of tasks is set in settings.
 After completed tasks, Fortuneteller can divine single player but cant start emergency meeting
-Divine is only available for once
+Divination is only available for once
 Fortune teller2 can divine players if player is dead or he has contacted player for certain duration
 Fox, Puppeteer and Schrodinger’s Cat are killed if they get divined</t>
   </si>
@@ -1056,7 +1056,7 @@
   <si>
     <t xml:space="preserve">Last impostor is an impostor role that the last living impostor acquires.
 last impostor gets additional ability if he kills number of players is set in settings
-Depends in options, last impostor takes guesser or divine ability.</t>
+Depends in options, last impostor can  use guesser or divination ability.</t>
   </si>
   <si>
     <t xml:space="preserve">ラストインポスターは最後まで生き残ったインポスターに付与される役割です。
@@ -15558,10 +15558,10 @@
   <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.3"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -15557,8 +15557,8 @@
   </sheetPr>
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K20" activeCellId="0" sqref="K20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
